--- a/漢字（かんじ）/d.xlsx
+++ b/漢字（かんじ）/d.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C66AC3-019D-4AE9-9D5B-228F23EE18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074AF05-CB20-4916-B915-AC5AADBB90BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,11 +203,6 @@
   </si>
   <si>
     <t>同僚｜どうりょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>独立｜どくりつ
-孤独｜こどく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -332,15 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宣伝｜せんでん
-自伝｜じでん
-宣伝広告費｜せんでんこうこくひ
-伝統｜でんとう
-伝統文化｜でんとうぶんか
-伝統食品｜でんとうしょくひん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>働</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,11 +337,6 @@
   </si>
   <si>
     <t>洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察｜どうさつ
-洞察力｜どうさつりょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,8 +350,33 @@
     <t>電話｜でんわ
 電車｜でんしゃ
 電気｜でんき
+電圧｜でんあつ
 電池｜でんち
+電球｜でんきゅう
+電源｜でんげん
 発電｜はつでん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣伝｜せんでん
+自伝｜じでん
+宣伝広告費｜せんでんこうこくひ
+伝達｜でんたつ
+伝統｜でんとう
+伝統文化｜でんとうぶんか
+伝統食品｜でんとうしょくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立｜どくりつ
+孤独｜こどく
+独特｜どくとく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察｜どうさつ
+洞察力｜どうさつりょく
+洞穴｜どうけつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="162" x14ac:dyDescent="0.45">
@@ -805,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -816,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -827,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -838,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -846,10 +852,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -868,10 +874,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32.4" x14ac:dyDescent="0.45">
@@ -879,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -907,7 +913,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -926,7 +932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="144" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -945,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,7 +959,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -969,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0780CC5-5928-4927-B8C8-96AD994BEFA6}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -997,7 +1003,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1005,10 +1011,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1022,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1041,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1049,10 +1055,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1063,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.45">
@@ -1099,15 +1105,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="43.8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/d.xlsx
+++ b/漢字（かんじ）/d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074AF05-CB20-4916-B915-AC5AADBB90BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFF7C7-25A9-4355-92A4-0E719BCC744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,13 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動物｜どうぶつ
-動作｜どうさ
-自動車｜じどうしゃ
-出動｜しゅつどう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電話｜でんわ
 電車｜でんしゃ
 電気｜でんき
@@ -377,6 +370,14 @@
     <t>洞察｜どうさつ
 洞察力｜どうさつりょく
 洞穴｜どうけつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動物｜どうぶつ
+動作｜どうさ
+自動車｜じどうしゃ
+出動｜しゅつどう
+起動｜きどう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -959,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -976,7 +977,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1036,10 +1037,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1113,7 +1114,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/d.xlsx
+++ b/漢字（かんじ）/d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DFF7C7-25A9-4355-92A4-0E719BCC744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444A127-7ED6-4E6B-BA55-1E8CBB33D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="だ" sheetId="1" r:id="rId1"/>
@@ -351,16 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宣伝｜せんでん
-自伝｜じでん
-宣伝広告費｜せんでんこうこくひ
-伝達｜でんたつ
-伝統｜でんとう
-伝統文化｜でんとうぶんか
-伝統食品｜でんとうしょくひん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>独立｜どくりつ
 孤独｜こどく
 独特｜どくとく</t>
@@ -378,6 +368,19 @@
 自動車｜じどうしゃ
 出動｜しゅつどう
 起動｜きどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣伝｜せんでん
+自伝｜じでん
+宣伝広告費｜せんでんこうこくひ
+伝達｜でんたつ
+伝言｜でんごん
+伝統｜でんとう
+伝記｜でんき
+伝奇｜でんき
+伝統文化｜でんとうぶんか
+伝統食品｜でんとうしょくひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D856E-4406-4B7E-9777-BDA7E940F3FD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -952,7 +955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="126" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -976,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0780CC5-5928-4927-B8C8-96AD994BEFA6}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -1048,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1114,7 +1117,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
